--- a/dolar_bcv.xlsx
+++ b/dolar_bcv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\BOLSADC_5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\BOLSADC_6-main\BOLSADC_6-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF586CA-563A-4B5C-B235-7752A45E4D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFACC91-C6C2-448E-8A46-853F29B3982F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46902DB1-43F4-4630-85C3-3B39D2B92370}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +70,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -107,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -118,6 +126,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -432,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6DA86F-8884-437F-9104-D83745BB71A6}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:E492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A464" workbookViewId="0">
+      <selection activeCell="A471" sqref="A471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,7 +801,7 @@
         <v>1.09E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>20251218</v>
       </c>
@@ -803,7 +812,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>20251219</v>
       </c>
@@ -814,7 +823,7 @@
         <v>1.06E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>20251222</v>
       </c>
@@ -825,7 +834,7 @@
         <v>1.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>20251223</v>
       </c>
@@ -836,7 +845,7 @@
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>20251226</v>
       </c>
@@ -847,7 +856,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>20251229</v>
       </c>
@@ -858,7 +867,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>20251230</v>
       </c>
@@ -869,7 +878,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>20260102</v>
       </c>
@@ -880,7 +889,7 @@
         <v>1.0800000000000001E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>20260105</v>
       </c>
@@ -891,7 +900,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>20260106</v>
       </c>
@@ -902,7 +911,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>20260107</v>
       </c>
@@ -913,7 +922,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>20260108</v>
       </c>
@@ -924,7 +933,7 @@
         <v>2.93E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>20260109</v>
       </c>
@@ -935,7 +944,7 @@
         <v>1.3599999999999999E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>20260113</v>
       </c>
@@ -945,8 +954,9 @@
       <c r="C46" s="3">
         <v>1.5299999999999999E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>20260114</v>
       </c>
@@ -957,7 +967,7 @@
         <v>1.84E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>20260115</v>
       </c>
@@ -977,6 +987,4879 @@
       </c>
       <c r="C49" s="3">
         <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>20251001</v>
+      </c>
+      <c r="B50" s="2">
+        <v>179.4308</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>20251002</v>
+      </c>
+      <c r="B51" s="2">
+        <v>181.30369999999999</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>20251003</v>
+      </c>
+      <c r="B52" s="2">
+        <v>183.1369</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>20251006</v>
+      </c>
+      <c r="B53" s="2">
+        <v>185.39830000000001</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>20251007</v>
+      </c>
+      <c r="B54" s="2">
+        <v>187.2893</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>20251008</v>
+      </c>
+      <c r="B55" s="2">
+        <v>189.2594</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>20251009</v>
+      </c>
+      <c r="B56" s="2">
+        <v>191.36609999999999</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>20251010</v>
+      </c>
+      <c r="B57" s="2">
+        <v>193.2996</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>20251013</v>
+      </c>
+      <c r="B58" s="2">
+        <v>195.2491</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>20251014</v>
+      </c>
+      <c r="B59" s="2">
+        <v>197.2456</v>
+      </c>
+      <c r="C59" s="3">
+        <v>1.0200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>20251015</v>
+      </c>
+      <c r="B60" s="2">
+        <v>199.10720000000001</v>
+      </c>
+      <c r="C60" s="3">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>20251016</v>
+      </c>
+      <c r="B61" s="2">
+        <v>201.4665</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>20251017</v>
+      </c>
+      <c r="B62" s="2">
+        <v>203.74199999999999</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>20251020</v>
+      </c>
+      <c r="B63" s="2">
+        <v>205.6754</v>
+      </c>
+      <c r="C63" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>20251021</v>
+      </c>
+      <c r="B64" s="2">
+        <v>207.8938</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>20251022</v>
+      </c>
+      <c r="B65" s="2">
+        <v>210.2825</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>20251023</v>
+      </c>
+      <c r="B66" s="2">
+        <v>212.4837</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>20251024</v>
+      </c>
+      <c r="B67" s="2">
+        <v>214.41900000000001</v>
+      </c>
+      <c r="C67" s="3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>20251027</v>
+      </c>
+      <c r="B68" s="2">
+        <v>216.37139999999999</v>
+      </c>
+      <c r="C68" s="3">
+        <v>9.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>20251028</v>
+      </c>
+      <c r="B69" s="2">
+        <v>218.17</v>
+      </c>
+      <c r="C69" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>20251029</v>
+      </c>
+      <c r="B70" s="2">
+        <v>219.87370000000001</v>
+      </c>
+      <c r="C70" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>20251030</v>
+      </c>
+      <c r="B71" s="2">
+        <v>221.74379999999999</v>
+      </c>
+      <c r="C71" s="3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>20251031</v>
+      </c>
+      <c r="B72" s="2">
+        <v>223.64590000000001</v>
+      </c>
+      <c r="C72" s="3">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>20250901</v>
+      </c>
+      <c r="B73" s="2">
+        <v>148.44399999999999</v>
+      </c>
+      <c r="C73" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>20250902</v>
+      </c>
+      <c r="B74" s="2">
+        <v>149.46770000000001</v>
+      </c>
+      <c r="C74" s="3">
+        <v>6.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>20250903</v>
+      </c>
+      <c r="B75" s="2">
+        <v>150.79519999999999</v>
+      </c>
+      <c r="C75" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>20250904</v>
+      </c>
+      <c r="B76" s="2">
+        <v>151.7627</v>
+      </c>
+      <c r="C76" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>20250905</v>
+      </c>
+      <c r="B77" s="2">
+        <v>152.82159999999999</v>
+      </c>
+      <c r="C77" s="3">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>20250908</v>
+      </c>
+      <c r="B78" s="2">
+        <v>154.01079999999999</v>
+      </c>
+      <c r="C78" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>20250909</v>
+      </c>
+      <c r="B79" s="2">
+        <v>154.98249999999999</v>
+      </c>
+      <c r="C79" s="3">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>20250910</v>
+      </c>
+      <c r="B80" s="2">
+        <v>156.37389999999999</v>
+      </c>
+      <c r="C80" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>20250911</v>
+      </c>
+      <c r="B81" s="2">
+        <v>157.7287</v>
+      </c>
+      <c r="C81" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>20250912</v>
+      </c>
+      <c r="B82" s="2">
+        <v>158.9289</v>
+      </c>
+      <c r="C82" s="3">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>20250916</v>
+      </c>
+      <c r="B83" s="2">
+        <v>160.4479</v>
+      </c>
+      <c r="C83" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>20250917</v>
+      </c>
+      <c r="B84" s="2">
+        <v>161.88800000000001</v>
+      </c>
+      <c r="C84" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>20250918</v>
+      </c>
+      <c r="B85" s="2">
+        <v>163.6474</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1.09E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>20250919</v>
+      </c>
+      <c r="B86" s="2">
+        <v>165.4101</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>20250922</v>
+      </c>
+      <c r="B87" s="2">
+        <v>166.58340000000001</v>
+      </c>
+      <c r="C87" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>20250923</v>
+      </c>
+      <c r="B88" s="2">
+        <v>168.41569999999999</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>20250924</v>
+      </c>
+      <c r="B89" s="2">
+        <v>169.9761</v>
+      </c>
+      <c r="C89" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>20250925</v>
+      </c>
+      <c r="B90" s="2">
+        <v>171.8458</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>20250926</v>
+      </c>
+      <c r="B91" s="2">
+        <v>173.73609999999999</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>20250929</v>
+      </c>
+      <c r="B92" s="2">
+        <v>175.64709999999999</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>20250930</v>
+      </c>
+      <c r="B93" s="2">
+        <v>177.61429999999999</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1.12E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>20250801</v>
+      </c>
+      <c r="B94" s="2">
+        <v>125.4247</v>
+      </c>
+      <c r="C94" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>20250804</v>
+      </c>
+      <c r="B95" s="2">
+        <v>126.28019999999999</v>
+      </c>
+      <c r="C95" s="3">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>20250805</v>
+      </c>
+      <c r="B96" s="2">
+        <v>127.1097</v>
+      </c>
+      <c r="C96" s="3">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>20250806</v>
+      </c>
+      <c r="B97" s="2">
+        <v>128.24090000000001</v>
+      </c>
+      <c r="C97" s="3">
+        <v>8.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>20250807</v>
+      </c>
+      <c r="B98" s="2">
+        <v>129.05350000000001</v>
+      </c>
+      <c r="C98" s="3">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>20250808</v>
+      </c>
+      <c r="B99" s="2">
+        <v>130.0652</v>
+      </c>
+      <c r="C99" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>20250811</v>
+      </c>
+      <c r="B100" s="2">
+        <v>131.1241</v>
+      </c>
+      <c r="C100" s="3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>20250812</v>
+      </c>
+      <c r="B101" s="2">
+        <v>132.30260000000001</v>
+      </c>
+      <c r="C101" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>20250813</v>
+      </c>
+      <c r="B102" s="2">
+        <v>133.51589999999999</v>
+      </c>
+      <c r="C102" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>20250814</v>
+      </c>
+      <c r="B103" s="2">
+        <v>134.4812</v>
+      </c>
+      <c r="C103" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>20250815</v>
+      </c>
+      <c r="B104" s="2">
+        <v>135.63990000000001</v>
+      </c>
+      <c r="C104" s="3">
+        <v>8.6E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>20250819</v>
+      </c>
+      <c r="B105" s="2">
+        <v>136.8931</v>
+      </c>
+      <c r="C105" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>20250820</v>
+      </c>
+      <c r="B106" s="2">
+        <v>138.1283</v>
+      </c>
+      <c r="C106" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>20250821</v>
+      </c>
+      <c r="B107" s="2">
+        <v>139.4016</v>
+      </c>
+      <c r="C107" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>20250822</v>
+      </c>
+      <c r="B108" s="2">
+        <v>140.66</v>
+      </c>
+      <c r="C108" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>20250825</v>
+      </c>
+      <c r="B109" s="2">
+        <v>141.8843</v>
+      </c>
+      <c r="C109" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>20250826</v>
+      </c>
+      <c r="B110" s="2">
+        <v>143.03809999999999</v>
+      </c>
+      <c r="C110" s="3">
+        <v>8.0999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>20250827</v>
+      </c>
+      <c r="B111" s="2">
+        <v>144.3732</v>
+      </c>
+      <c r="C111" s="3">
+        <v>9.2999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>20250828</v>
+      </c>
+      <c r="B112" s="2">
+        <v>145.74529999999999</v>
+      </c>
+      <c r="C112" s="3">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>20250829</v>
+      </c>
+      <c r="B113" s="2">
+        <v>147.08250000000001</v>
+      </c>
+      <c r="C113" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>20250701</v>
+      </c>
+      <c r="B114" s="2">
+        <v>108.1891</v>
+      </c>
+      <c r="C114" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>20250702</v>
+      </c>
+      <c r="B115" s="2">
+        <v>108.9785</v>
+      </c>
+      <c r="C115" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>20250703</v>
+      </c>
+      <c r="B116" s="2">
+        <v>109.7724</v>
+      </c>
+      <c r="C116" s="3">
+        <v>7.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>20250704</v>
+      </c>
+      <c r="B117" s="2">
+        <v>110.5569</v>
+      </c>
+      <c r="C117" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>20250707</v>
+      </c>
+      <c r="B118" s="2">
+        <v>111.4186</v>
+      </c>
+      <c r="C118" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>20250708</v>
+      </c>
+      <c r="B119" s="2">
+        <v>112.12779999999999</v>
+      </c>
+      <c r="C119" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>20250709</v>
+      </c>
+      <c r="B120" s="2">
+        <v>112.82850000000001</v>
+      </c>
+      <c r="C120" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>20250710</v>
+      </c>
+      <c r="B121" s="2">
+        <v>113.7505</v>
+      </c>
+      <c r="C121" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>20250711</v>
+      </c>
+      <c r="B122" s="2">
+        <v>114.4115</v>
+      </c>
+      <c r="C122" s="3">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>20250714</v>
+      </c>
+      <c r="B123" s="2">
+        <v>115.3279</v>
+      </c>
+      <c r="C123" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>20250715</v>
+      </c>
+      <c r="B124" s="2">
+        <v>115.8446</v>
+      </c>
+      <c r="C124" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>20250716</v>
+      </c>
+      <c r="B125" s="2">
+        <v>116.81910000000001</v>
+      </c>
+      <c r="C125" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>20250717</v>
+      </c>
+      <c r="B126" s="2">
+        <v>117.4036</v>
+      </c>
+      <c r="C126" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>20250718</v>
+      </c>
+      <c r="B127" s="2">
+        <v>118.28740000000001</v>
+      </c>
+      <c r="C127" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>20250721</v>
+      </c>
+      <c r="B128" s="2">
+        <v>119.1446</v>
+      </c>
+      <c r="C128" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>20250722</v>
+      </c>
+      <c r="B129" s="2">
+        <v>119.6662</v>
+      </c>
+      <c r="C129" s="3">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>20250723</v>
+      </c>
+      <c r="B130" s="2">
+        <v>120.4239</v>
+      </c>
+      <c r="C130" s="3">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>20250725</v>
+      </c>
+      <c r="B131" s="2">
+        <v>121.34690000000001</v>
+      </c>
+      <c r="C131" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>20250728</v>
+      </c>
+      <c r="B132" s="2">
+        <v>122.17</v>
+      </c>
+      <c r="C132" s="3">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>20250729</v>
+      </c>
+      <c r="B133" s="2">
+        <v>122.8408</v>
+      </c>
+      <c r="C133" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>20250730</v>
+      </c>
+      <c r="B134" s="2">
+        <v>123.87179999999999</v>
+      </c>
+      <c r="C134" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>20250731</v>
+      </c>
+      <c r="B135" s="2">
+        <v>124.5102</v>
+      </c>
+      <c r="C135" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>20250603</v>
+      </c>
+      <c r="B136" s="2">
+        <v>97.312600000000003</v>
+      </c>
+      <c r="C136" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>20250604</v>
+      </c>
+      <c r="B137" s="2">
+        <v>97.419399999999996</v>
+      </c>
+      <c r="C137" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>20250605</v>
+      </c>
+      <c r="B138" s="2">
+        <v>97.903099999999995</v>
+      </c>
+      <c r="C138" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>20250606</v>
+      </c>
+      <c r="B139" s="2">
+        <v>98.513199999999998</v>
+      </c>
+      <c r="C139" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>20250609</v>
+      </c>
+      <c r="B140" s="2">
+        <v>99.0916</v>
+      </c>
+      <c r="C140" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>20250610</v>
+      </c>
+      <c r="B141" s="2">
+        <v>99.124700000000004</v>
+      </c>
+      <c r="C141" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>20250611</v>
+      </c>
+      <c r="B142" s="2">
+        <v>99.698300000000003</v>
+      </c>
+      <c r="C142" s="3">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>20250612</v>
+      </c>
+      <c r="B143" s="2">
+        <v>100.3396</v>
+      </c>
+      <c r="C143" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>20250613</v>
+      </c>
+      <c r="B144" s="2">
+        <v>101.0822</v>
+      </c>
+      <c r="C144" s="3">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>20250617</v>
+      </c>
+      <c r="B145" s="2">
+        <v>102.157</v>
+      </c>
+      <c r="C145" s="3">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>20250618</v>
+      </c>
+      <c r="B146" s="2">
+        <v>102.8083</v>
+      </c>
+      <c r="C146" s="3">
+        <v>6.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>20250619</v>
+      </c>
+      <c r="B147" s="2">
+        <v>103.7355</v>
+      </c>
+      <c r="C147" s="3">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>20250620</v>
+      </c>
+      <c r="B148" s="2">
+        <v>104.54340000000001</v>
+      </c>
+      <c r="C148" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>20250625</v>
+      </c>
+      <c r="B149" s="2">
+        <v>105.45269999999999</v>
+      </c>
+      <c r="C149" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>20250626</v>
+      </c>
+      <c r="B150" s="2">
+        <v>106.16849999999999</v>
+      </c>
+      <c r="C150" s="3">
+        <v>6.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>20250627</v>
+      </c>
+      <c r="B151" s="2">
+        <v>106.86199999999999</v>
+      </c>
+      <c r="C151" s="3">
+        <v>6.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>20250630</v>
+      </c>
+      <c r="B152" s="2">
+        <v>107.6245</v>
+      </c>
+      <c r="C152" s="3">
+        <v>7.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>20250502</v>
+      </c>
+      <c r="B153" s="2">
+        <v>87.568100000000001</v>
+      </c>
+      <c r="C153" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>20250505</v>
+      </c>
+      <c r="B154" s="2">
+        <v>88.640500000000003</v>
+      </c>
+      <c r="C154" s="3">
+        <v>1.2200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>20250506</v>
+      </c>
+      <c r="B155" s="2">
+        <v>88.722399999999993</v>
+      </c>
+      <c r="C155" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>20250507</v>
+      </c>
+      <c r="B156" s="2">
+        <v>91.211299999999994</v>
+      </c>
+      <c r="C156" s="3">
+        <v>2.81E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>20250508</v>
+      </c>
+      <c r="B157" s="2">
+        <v>91.916499999999999</v>
+      </c>
+      <c r="C157" s="3">
+        <v>7.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>20250509</v>
+      </c>
+      <c r="B158" s="2">
+        <v>92.831000000000003</v>
+      </c>
+      <c r="C158" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>20250512</v>
+      </c>
+      <c r="B159" s="2">
+        <v>93.049499999999995</v>
+      </c>
+      <c r="C159" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>20250513</v>
+      </c>
+      <c r="B160" s="2">
+        <v>93.062299999999993</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>20250514</v>
+      </c>
+      <c r="B161" s="2">
+        <v>93.579599999999999</v>
+      </c>
+      <c r="C161" s="3">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>20250515</v>
+      </c>
+      <c r="B162" s="2">
+        <v>94.155699999999996</v>
+      </c>
+      <c r="C162" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>20250516</v>
+      </c>
+      <c r="B163" s="2">
+        <v>94.324100000000001</v>
+      </c>
+      <c r="C163" s="3">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>20250519</v>
+      </c>
+      <c r="B164" s="2">
+        <v>94.763000000000005</v>
+      </c>
+      <c r="C164" s="3">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>20250520</v>
+      </c>
+      <c r="B165" s="2">
+        <v>94.802400000000006</v>
+      </c>
+      <c r="C165" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>20250521</v>
+      </c>
+      <c r="B166" s="2">
+        <v>94.855599999999995</v>
+      </c>
+      <c r="C166" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>20250522</v>
+      </c>
+      <c r="B167" s="2">
+        <v>94.965199999999996</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>20250523</v>
+      </c>
+      <c r="B168" s="2">
+        <v>95.018900000000002</v>
+      </c>
+      <c r="C168" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>20250526</v>
+      </c>
+      <c r="B169" s="2">
+        <v>95.084000000000003</v>
+      </c>
+      <c r="C169" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>20250527</v>
+      </c>
+      <c r="B170" s="2">
+        <v>95.238699999999994</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>20250528</v>
+      </c>
+      <c r="B171" s="2">
+        <v>95.805199999999999</v>
+      </c>
+      <c r="C171" s="3">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>20250529</v>
+      </c>
+      <c r="B172" s="2">
+        <v>96.530299999999997</v>
+      </c>
+      <c r="C172" s="3">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>20250530</v>
+      </c>
+      <c r="B173" s="2">
+        <v>96.857699999999994</v>
+      </c>
+      <c r="C173" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>20250401</v>
+      </c>
+      <c r="B174" s="2">
+        <v>69.775999999999996</v>
+      </c>
+      <c r="C174" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>20250402</v>
+      </c>
+      <c r="B175" s="2">
+        <v>70.014099999999999</v>
+      </c>
+      <c r="C175" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>20250403</v>
+      </c>
+      <c r="B176" s="2">
+        <v>70.249600000000001</v>
+      </c>
+      <c r="C176" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>20250404</v>
+      </c>
+      <c r="B177" s="2">
+        <v>70.5852</v>
+      </c>
+      <c r="C177" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>20250407</v>
+      </c>
+      <c r="B178" s="2">
+        <v>72.185599999999994</v>
+      </c>
+      <c r="C178" s="3">
+        <v>2.2700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>20250408</v>
+      </c>
+      <c r="B179" s="2">
+        <v>73.357600000000005</v>
+      </c>
+      <c r="C179" s="3">
+        <v>1.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>20250409</v>
+      </c>
+      <c r="B180" s="2">
+        <v>74.278700000000001</v>
+      </c>
+      <c r="C180" s="3">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>20250410</v>
+      </c>
+      <c r="B181" s="2">
+        <v>75.802499999999995</v>
+      </c>
+      <c r="C181" s="3">
+        <v>2.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>20250411</v>
+      </c>
+      <c r="B182" s="2">
+        <v>77.264600000000002</v>
+      </c>
+      <c r="C182" s="3">
+        <v>1.9300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>20250414</v>
+      </c>
+      <c r="B183" s="2">
+        <v>78.363500000000002</v>
+      </c>
+      <c r="C183" s="3">
+        <v>1.4200000000000001E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>20250415</v>
+      </c>
+      <c r="B184" s="2">
+        <v>78.591399999999993</v>
+      </c>
+      <c r="C184" s="3">
+        <v>2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>20250416</v>
+      </c>
+      <c r="B185" s="2">
+        <v>79.784400000000005</v>
+      </c>
+      <c r="C185" s="3">
+        <v>1.52E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>20250421</v>
+      </c>
+      <c r="B186" s="2">
+        <v>80.959800000000001</v>
+      </c>
+      <c r="C186" s="3">
+        <v>1.47E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>20250422</v>
+      </c>
+      <c r="B187" s="2">
+        <v>81.761300000000006</v>
+      </c>
+      <c r="C187" s="3">
+        <v>9.9000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>20250423</v>
+      </c>
+      <c r="B188" s="2">
+        <v>82.378799999999998</v>
+      </c>
+      <c r="C188" s="3">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>20250424</v>
+      </c>
+      <c r="B189" s="2">
+        <v>83.418199999999999</v>
+      </c>
+      <c r="C189" s="3">
+        <v>1.26E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>20250425</v>
+      </c>
+      <c r="B190" s="2">
+        <v>84.420400000000001</v>
+      </c>
+      <c r="C190" s="3">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>20250428</v>
+      </c>
+      <c r="B191" s="2">
+        <v>86.1143</v>
+      </c>
+      <c r="C191" s="3">
+        <v>2.01E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>20250429</v>
+      </c>
+      <c r="B192" s="2">
+        <v>86.656400000000005</v>
+      </c>
+      <c r="C192" s="3">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>20250430</v>
+      </c>
+      <c r="B193" s="2">
+        <v>86.846500000000006</v>
+      </c>
+      <c r="C193" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>20250305</v>
+      </c>
+      <c r="B194" s="2">
+        <v>64.484399999999994</v>
+      </c>
+      <c r="C194" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>20250306</v>
+      </c>
+      <c r="B195" s="2">
+        <v>64.611599999999996</v>
+      </c>
+      <c r="C195" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>20250307</v>
+      </c>
+      <c r="B196" s="2">
+        <v>64.745999999999995</v>
+      </c>
+      <c r="C196" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="2">
+        <v>20250310</v>
+      </c>
+      <c r="B197" s="2">
+        <v>65.266199999999998</v>
+      </c>
+      <c r="C197" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="2">
+        <v>20250311</v>
+      </c>
+      <c r="B198" s="2">
+        <v>65.415099999999995</v>
+      </c>
+      <c r="C198" s="3">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="2">
+        <v>20250312</v>
+      </c>
+      <c r="B199" s="2">
+        <v>65.626800000000003</v>
+      </c>
+      <c r="C199" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="2">
+        <v>20250313</v>
+      </c>
+      <c r="B200" s="2">
+        <v>66.254199999999997</v>
+      </c>
+      <c r="C200" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="2">
+        <v>20250314</v>
+      </c>
+      <c r="B201" s="2">
+        <v>66.436800000000005</v>
+      </c>
+      <c r="C201" s="3">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="2">
+        <v>20250317</v>
+      </c>
+      <c r="B202" s="2">
+        <v>66.557299999999998</v>
+      </c>
+      <c r="C202" s="3">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="2">
+        <v>20250318</v>
+      </c>
+      <c r="B203" s="2">
+        <v>66.787999999999997</v>
+      </c>
+      <c r="C203" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="2">
+        <v>20250320</v>
+      </c>
+      <c r="B204" s="2">
+        <v>67.634399999999999</v>
+      </c>
+      <c r="C204" s="3">
+        <v>1.2699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="2">
+        <v>20250321</v>
+      </c>
+      <c r="B205" s="2">
+        <v>67.8583</v>
+      </c>
+      <c r="C205" s="3">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="2">
+        <v>20250324</v>
+      </c>
+      <c r="B206" s="2">
+        <v>68.311599999999999</v>
+      </c>
+      <c r="C206" s="3">
+        <v>6.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="2">
+        <v>20250325</v>
+      </c>
+      <c r="B207" s="2">
+        <v>68.393600000000006</v>
+      </c>
+      <c r="C207" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="2">
+        <v>20250326</v>
+      </c>
+      <c r="B208" s="2">
+        <v>68.699399999999997</v>
+      </c>
+      <c r="C208" s="3">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="2">
+        <v>20250327</v>
+      </c>
+      <c r="B209" s="2">
+        <v>69.018799999999999</v>
+      </c>
+      <c r="C209" s="3">
+        <v>4.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="2">
+        <v>20250328</v>
+      </c>
+      <c r="B210" s="2">
+        <v>69.438699999999997</v>
+      </c>
+      <c r="C210" s="3">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="2">
+        <v>20250331</v>
+      </c>
+      <c r="B211" s="2">
+        <v>69.556399999999996</v>
+      </c>
+      <c r="C211" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A212" s="2">
+        <v>20250203</v>
+      </c>
+      <c r="B212" s="2">
+        <v>58.4437</v>
+      </c>
+      <c r="C212" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="2">
+        <v>20250204</v>
+      </c>
+      <c r="B213" s="2">
+        <v>58.540399999999998</v>
+      </c>
+      <c r="C213" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A214" s="2">
+        <v>20250205</v>
+      </c>
+      <c r="B214" s="2">
+        <v>58.793799999999997</v>
+      </c>
+      <c r="C214" s="3">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A215" s="2">
+        <v>20250206</v>
+      </c>
+      <c r="B215" s="2">
+        <v>59.460500000000003</v>
+      </c>
+      <c r="C215" s="3">
+        <v>1.1299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A216" s="2">
+        <v>20250207</v>
+      </c>
+      <c r="B216" s="2">
+        <v>60.1417</v>
+      </c>
+      <c r="C216" s="3">
+        <v>1.15E-2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A217" s="2">
+        <v>20250210</v>
+      </c>
+      <c r="B217" s="2">
+        <v>60.521099999999997</v>
+      </c>
+      <c r="C217" s="3">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="2">
+        <v>20250211</v>
+      </c>
+      <c r="B218" s="2">
+        <v>60.5428</v>
+      </c>
+      <c r="C218" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="2">
+        <v>20250212</v>
+      </c>
+      <c r="B219" s="2">
+        <v>61.027799999999999</v>
+      </c>
+      <c r="C219" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A220" s="2">
+        <v>20250213</v>
+      </c>
+      <c r="B220" s="2">
+        <v>61.346200000000003</v>
+      </c>
+      <c r="C220" s="3">
+        <v>5.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="2">
+        <v>20250214</v>
+      </c>
+      <c r="B221" s="2">
+        <v>61.822699999999998</v>
+      </c>
+      <c r="C221" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A222" s="2">
+        <v>20250217</v>
+      </c>
+      <c r="B222" s="2">
+        <v>62.070799999999998</v>
+      </c>
+      <c r="C222" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A223" s="2">
+        <v>20250218</v>
+      </c>
+      <c r="B223" s="2">
+        <v>62.099899999999998</v>
+      </c>
+      <c r="C223" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="2">
+        <v>20250219</v>
+      </c>
+      <c r="B224" s="2">
+        <v>62.183399999999999</v>
+      </c>
+      <c r="C224" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="2">
+        <v>20250220</v>
+      </c>
+      <c r="B225" s="2">
+        <v>62.5107</v>
+      </c>
+      <c r="C225" s="3">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="2">
+        <v>20250221</v>
+      </c>
+      <c r="B226" s="2">
+        <v>63.206499999999998</v>
+      </c>
+      <c r="C226" s="3">
+        <v>1.11E-2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A227" s="2">
+        <v>20250224</v>
+      </c>
+      <c r="B227" s="2">
+        <v>63.413899999999998</v>
+      </c>
+      <c r="C227" s="3">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="2">
+        <v>20250225</v>
+      </c>
+      <c r="B228" s="2">
+        <v>63.4938</v>
+      </c>
+      <c r="C228" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="2">
+        <v>20250226</v>
+      </c>
+      <c r="B229" s="2">
+        <v>64.019099999999995</v>
+      </c>
+      <c r="C229" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="2">
+        <v>20250227</v>
+      </c>
+      <c r="B230" s="2">
+        <v>64.240600000000001</v>
+      </c>
+      <c r="C230" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="2">
+        <v>20250228</v>
+      </c>
+      <c r="B231" s="2">
+        <v>64.246399999999994</v>
+      </c>
+      <c r="C231" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="2">
+        <v>20250102</v>
+      </c>
+      <c r="B232" s="2">
+        <v>52.027099999999997</v>
+      </c>
+      <c r="C232" s="3">
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="2">
+        <v>20250103</v>
+      </c>
+      <c r="B233" s="2">
+        <v>52.572299999999998</v>
+      </c>
+      <c r="C233" s="3">
+        <v>1.0500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="2">
+        <v>20250107</v>
+      </c>
+      <c r="B234" s="2">
+        <v>53.012</v>
+      </c>
+      <c r="C234" s="3">
+        <v>8.3999999999999995E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="2">
+        <v>20250108</v>
+      </c>
+      <c r="B235" s="2">
+        <v>53.070399999999999</v>
+      </c>
+      <c r="C235" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="2">
+        <v>20250109</v>
+      </c>
+      <c r="B236" s="2">
+        <v>53.282699999999998</v>
+      </c>
+      <c r="C236" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="2">
+        <v>20250110</v>
+      </c>
+      <c r="B237" s="2">
+        <v>53.852200000000003</v>
+      </c>
+      <c r="C237" s="3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="2">
+        <v>20250114</v>
+      </c>
+      <c r="B238" s="2">
+        <v>53.879100000000001</v>
+      </c>
+      <c r="C238" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="2">
+        <v>20250115</v>
+      </c>
+      <c r="B239" s="2">
+        <v>53.964199999999998</v>
+      </c>
+      <c r="C239" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="2">
+        <v>20250116</v>
+      </c>
+      <c r="B240" s="2">
+        <v>54.369399999999999</v>
+      </c>
+      <c r="C240" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A241" s="2">
+        <v>20250117</v>
+      </c>
+      <c r="B241" s="2">
+        <v>54.76</v>
+      </c>
+      <c r="C241" s="3">
+        <v>7.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="2">
+        <v>20250120</v>
+      </c>
+      <c r="B242" s="2">
+        <v>54.911299999999997</v>
+      </c>
+      <c r="C242" s="3">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="2">
+        <v>20250121</v>
+      </c>
+      <c r="B243" s="2">
+        <v>54.985199999999999</v>
+      </c>
+      <c r="C243" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="2">
+        <v>20250122</v>
+      </c>
+      <c r="B244" s="2">
+        <v>55.299900000000001</v>
+      </c>
+      <c r="C244" s="3">
+        <v>5.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="2">
+        <v>20250123</v>
+      </c>
+      <c r="B245" s="2">
+        <v>55.761099999999999</v>
+      </c>
+      <c r="C245" s="3">
+        <v>8.3000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="2">
+        <v>20250124</v>
+      </c>
+      <c r="B246" s="2">
+        <v>56.283000000000001</v>
+      </c>
+      <c r="C246" s="3">
+        <v>9.4000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="2">
+        <v>20250127</v>
+      </c>
+      <c r="B247" s="2">
+        <v>56.652200000000001</v>
+      </c>
+      <c r="C247" s="3">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="2">
+        <v>20250128</v>
+      </c>
+      <c r="B248" s="2">
+        <v>56.856200000000001</v>
+      </c>
+      <c r="C248" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="2">
+        <v>20250129</v>
+      </c>
+      <c r="B249" s="2">
+        <v>57.297400000000003</v>
+      </c>
+      <c r="C249" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="2">
+        <v>20250130</v>
+      </c>
+      <c r="B250" s="2">
+        <v>57.392899999999997</v>
+      </c>
+      <c r="C250" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="2">
+        <v>20250131</v>
+      </c>
+      <c r="B251" s="2">
+        <v>57.9666</v>
+      </c>
+      <c r="C251" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="2">
+        <v>20241202</v>
+      </c>
+      <c r="B252" s="2">
+        <v>47.607399999999998</v>
+      </c>
+      <c r="C252" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="2">
+        <v>20241203</v>
+      </c>
+      <c r="B253" s="2">
+        <v>47.729300000000002</v>
+      </c>
+      <c r="C253" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="2">
+        <v>20241204</v>
+      </c>
+      <c r="B254" s="2">
+        <v>47.855200000000004</v>
+      </c>
+      <c r="C254" s="3">
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="2">
+        <v>20241205</v>
+      </c>
+      <c r="B255" s="2">
+        <v>48.118299999999998</v>
+      </c>
+      <c r="C255" s="3">
+        <v>5.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="2">
+        <v>20241206</v>
+      </c>
+      <c r="B256" s="2">
+        <v>48.326500000000003</v>
+      </c>
+      <c r="C256" s="3">
+        <v>4.3E-3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A257" s="2">
+        <v>20241209</v>
+      </c>
+      <c r="B257" s="2">
+        <v>48.790300000000002</v>
+      </c>
+      <c r="C257" s="3">
+        <v>9.5999999999999992E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="2">
+        <v>20241210</v>
+      </c>
+      <c r="B258" s="2">
+        <v>48.869500000000002</v>
+      </c>
+      <c r="C258" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="2">
+        <v>20241211</v>
+      </c>
+      <c r="B259" s="2">
+        <v>49.1111</v>
+      </c>
+      <c r="C259" s="3">
+        <v>4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="2">
+        <v>20241212</v>
+      </c>
+      <c r="B260" s="2">
+        <v>49.475700000000003</v>
+      </c>
+      <c r="C260" s="3">
+        <v>7.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="2">
+        <v>20241213</v>
+      </c>
+      <c r="B261" s="2">
+        <v>49.906399999999998</v>
+      </c>
+      <c r="C261" s="3">
+        <v>8.6999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2">
+        <v>20241216</v>
+      </c>
+      <c r="B262" s="2">
+        <v>50.331899999999997</v>
+      </c>
+      <c r="C262" s="3">
+        <v>8.5000000000000006E-3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2">
+        <v>20241217</v>
+      </c>
+      <c r="B263" s="2">
+        <v>50.371000000000002</v>
+      </c>
+      <c r="C263" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="2">
+        <v>20241218</v>
+      </c>
+      <c r="B264" s="2">
+        <v>50.541899999999998</v>
+      </c>
+      <c r="C264" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="2">
+        <v>20241219</v>
+      </c>
+      <c r="B265" s="2">
+        <v>50.954500000000003</v>
+      </c>
+      <c r="C265" s="3">
+        <v>8.2000000000000007E-3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="2">
+        <v>20241220</v>
+      </c>
+      <c r="B266" s="2">
+        <v>51.3504</v>
+      </c>
+      <c r="C266" s="3">
+        <v>7.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="2">
+        <v>20241223</v>
+      </c>
+      <c r="B267" s="2">
+        <v>51.5398</v>
+      </c>
+      <c r="C267" s="3">
+        <v>3.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="2">
+        <v>20241226</v>
+      </c>
+      <c r="B268" s="2">
+        <v>51.64</v>
+      </c>
+      <c r="C268" s="3">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="2">
+        <v>20241227</v>
+      </c>
+      <c r="B269" s="2">
+        <v>51.765900000000002</v>
+      </c>
+      <c r="C269" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="2">
+        <v>20241230</v>
+      </c>
+      <c r="B270" s="2">
+        <v>51.9345</v>
+      </c>
+      <c r="C270" s="3">
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="2">
+        <v>20241101</v>
+      </c>
+      <c r="B271" s="2">
+        <v>42.710099999999997</v>
+      </c>
+      <c r="C271" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="2">
+        <v>20241105</v>
+      </c>
+      <c r="B272" s="2">
+        <v>42.856900000000003</v>
+      </c>
+      <c r="C272" s="3">
+        <v>3.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="2">
+        <v>20241106</v>
+      </c>
+      <c r="B273" s="2">
+        <v>43.457599999999999</v>
+      </c>
+      <c r="C273" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="2">
+        <v>20241107</v>
+      </c>
+      <c r="B274" s="2">
+        <v>43.782200000000003</v>
+      </c>
+      <c r="C274" s="3">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="2">
+        <v>20241108</v>
+      </c>
+      <c r="B275" s="2">
+        <v>44.186100000000003</v>
+      </c>
+      <c r="C275" s="3">
+        <v>9.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="2">
+        <v>20241111</v>
+      </c>
+      <c r="B276" s="2">
+        <v>44.703499999999998</v>
+      </c>
+      <c r="C276" s="3">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="2">
+        <v>20241112</v>
+      </c>
+      <c r="B277" s="2">
+        <v>44.754399999999997</v>
+      </c>
+      <c r="C277" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="2">
+        <v>20241113</v>
+      </c>
+      <c r="B278" s="2">
+        <v>44.928899999999999</v>
+      </c>
+      <c r="C278" s="3">
+        <v>3.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="2">
+        <v>20241114</v>
+      </c>
+      <c r="B279" s="2">
+        <v>45.052999999999997</v>
+      </c>
+      <c r="C279" s="3">
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="2">
+        <v>20241115</v>
+      </c>
+      <c r="B280" s="2">
+        <v>45.506999999999998</v>
+      </c>
+      <c r="C280" s="3">
+        <v>1.01E-2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="2">
+        <v>20241119</v>
+      </c>
+      <c r="B281" s="2">
+        <v>45.789400000000001</v>
+      </c>
+      <c r="C281" s="3">
+        <v>6.1999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="2">
+        <v>20241120</v>
+      </c>
+      <c r="B282" s="2">
+        <v>45.841000000000001</v>
+      </c>
+      <c r="C282" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="2">
+        <v>20241121</v>
+      </c>
+      <c r="B283" s="2">
+        <v>46.058799999999998</v>
+      </c>
+      <c r="C283" s="3">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="2">
+        <v>20241122</v>
+      </c>
+      <c r="B284" s="2">
+        <v>46.327300000000001</v>
+      </c>
+      <c r="C284" s="3">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="2">
+        <v>20241125</v>
+      </c>
+      <c r="B285" s="2">
+        <v>46.617600000000003</v>
+      </c>
+      <c r="C285" s="3">
+        <v>6.3E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A286" s="2">
+        <v>20241126</v>
+      </c>
+      <c r="B286" s="2">
+        <v>46.642699999999998</v>
+      </c>
+      <c r="C286" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="2">
+        <v>20241127</v>
+      </c>
+      <c r="B287" s="2">
+        <v>46.753700000000002</v>
+      </c>
+      <c r="C287" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="2">
+        <v>20241128</v>
+      </c>
+      <c r="B288" s="2">
+        <v>46.855400000000003</v>
+      </c>
+      <c r="C288" s="3">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="2">
+        <v>20241129</v>
+      </c>
+      <c r="B289" s="2">
+        <v>47.313800000000001</v>
+      </c>
+      <c r="C289" s="3">
+        <v>9.7999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="2">
+        <v>20241001</v>
+      </c>
+      <c r="B290" s="2">
+        <v>36.922699999999999</v>
+      </c>
+      <c r="C290" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="2">
+        <v>20241002</v>
+      </c>
+      <c r="B291" s="2">
+        <v>36.918700000000001</v>
+      </c>
+      <c r="C291" s="3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="2">
+        <v>20241003</v>
+      </c>
+      <c r="B292" s="2">
+        <v>36.981200000000001</v>
+      </c>
+      <c r="C292" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="2">
+        <v>20241004</v>
+      </c>
+      <c r="B293" s="2">
+        <v>36.985500000000002</v>
+      </c>
+      <c r="C293" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="2">
+        <v>20241007</v>
+      </c>
+      <c r="B294" s="2">
+        <v>37.035800000000002</v>
+      </c>
+      <c r="C294" s="3">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="2">
+        <v>20241008</v>
+      </c>
+      <c r="B295" s="2">
+        <v>37.039700000000003</v>
+      </c>
+      <c r="C295" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="2">
+        <v>20241009</v>
+      </c>
+      <c r="B296" s="2">
+        <v>37.073999999999998</v>
+      </c>
+      <c r="C296" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="2">
+        <v>20241010</v>
+      </c>
+      <c r="B297" s="2">
+        <v>37.529499999999999</v>
+      </c>
+      <c r="C297" s="3">
+        <v>1.23E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="2">
+        <v>20241011</v>
+      </c>
+      <c r="B298" s="2">
+        <v>37.650199999999998</v>
+      </c>
+      <c r="C298" s="3">
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="2">
+        <v>20241014</v>
+      </c>
+      <c r="B299" s="2">
+        <v>38.8857</v>
+      </c>
+      <c r="C299" s="3">
+        <v>3.2800000000000003E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="2">
+        <v>20241015</v>
+      </c>
+      <c r="B300" s="2">
+        <v>38.887999999999998</v>
+      </c>
+      <c r="C300" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="2">
+        <v>20241016</v>
+      </c>
+      <c r="B301" s="2">
+        <v>38.917900000000003</v>
+      </c>
+      <c r="C301" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="2">
+        <v>20241017</v>
+      </c>
+      <c r="B302" s="2">
+        <v>39.011600000000001</v>
+      </c>
+      <c r="C302" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="2">
+        <v>20241018</v>
+      </c>
+      <c r="B303" s="2">
+        <v>39.134399999999999</v>
+      </c>
+      <c r="C303" s="3">
+        <v>3.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A304" s="2">
+        <v>20241021</v>
+      </c>
+      <c r="B304" s="2">
+        <v>39.169899999999998</v>
+      </c>
+      <c r="C304" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="2">
+        <v>20241022</v>
+      </c>
+      <c r="B305" s="2">
+        <v>39.1813</v>
+      </c>
+      <c r="C305" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="2">
+        <v>20241023</v>
+      </c>
+      <c r="B306" s="2">
+        <v>39.323</v>
+      </c>
+      <c r="C306" s="3">
+        <v>3.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="2">
+        <v>20241024</v>
+      </c>
+      <c r="B307" s="2">
+        <v>39.4617</v>
+      </c>
+      <c r="C307" s="3">
+        <v>3.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="2">
+        <v>20241025</v>
+      </c>
+      <c r="B308" s="2">
+        <v>40.880299999999998</v>
+      </c>
+      <c r="C308" s="3">
+        <v>3.5900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="2">
+        <v>20241028</v>
+      </c>
+      <c r="B309" s="2">
+        <v>41.042900000000003</v>
+      </c>
+      <c r="C309" s="3">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="2">
+        <v>20241029</v>
+      </c>
+      <c r="B310" s="2">
+        <v>41.7361</v>
+      </c>
+      <c r="C310" s="3">
+        <v>1.6899999999999998E-2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="2">
+        <v>20241030</v>
+      </c>
+      <c r="B311" s="2">
+        <v>42.2256</v>
+      </c>
+      <c r="C311" s="3">
+        <v>1.17E-2</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="2">
+        <v>20241031</v>
+      </c>
+      <c r="B312" s="2">
+        <v>42.562199999999997</v>
+      </c>
+      <c r="C312" s="3">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="2">
+        <v>20240902</v>
+      </c>
+      <c r="B313" s="2">
+        <v>36.645400000000002</v>
+      </c>
+      <c r="C313" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="2">
+        <v>20240903</v>
+      </c>
+      <c r="B314" s="2">
+        <v>36.638599999999997</v>
+      </c>
+      <c r="C314" s="3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="2">
+        <v>20240904</v>
+      </c>
+      <c r="B315" s="2">
+        <v>36.639099999999999</v>
+      </c>
+      <c r="C315" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="2">
+        <v>20240905</v>
+      </c>
+      <c r="B316" s="2">
+        <v>36.643599999999999</v>
+      </c>
+      <c r="C316" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="2">
+        <v>20240906</v>
+      </c>
+      <c r="B317" s="2">
+        <v>36.684600000000003</v>
+      </c>
+      <c r="C317" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="2">
+        <v>20240909</v>
+      </c>
+      <c r="B318" s="2">
+        <v>36.695799999999998</v>
+      </c>
+      <c r="C318" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="2">
+        <v>20240910</v>
+      </c>
+      <c r="B319" s="2">
+        <v>36.685400000000001</v>
+      </c>
+      <c r="C319" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="2">
+        <v>20240911</v>
+      </c>
+      <c r="B320" s="2">
+        <v>36.706200000000003</v>
+      </c>
+      <c r="C320" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="2">
+        <v>20240912</v>
+      </c>
+      <c r="B321" s="2">
+        <v>36.732300000000002</v>
+      </c>
+      <c r="C321" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="2">
+        <v>20240913</v>
+      </c>
+      <c r="B322" s="2">
+        <v>36.741</v>
+      </c>
+      <c r="C322" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A323" s="2">
+        <v>20240917</v>
+      </c>
+      <c r="B323" s="2">
+        <v>36.775100000000002</v>
+      </c>
+      <c r="C323" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="2">
+        <v>20240918</v>
+      </c>
+      <c r="B324" s="2">
+        <v>36.770200000000003</v>
+      </c>
+      <c r="C324" s="3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="2">
+        <v>20240919</v>
+      </c>
+      <c r="B325" s="2">
+        <v>36.7789</v>
+      </c>
+      <c r="C325" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="2">
+        <v>20240920</v>
+      </c>
+      <c r="B326" s="2">
+        <v>36.801299999999998</v>
+      </c>
+      <c r="C326" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="2">
+        <v>20240923</v>
+      </c>
+      <c r="B327" s="2">
+        <v>36.823</v>
+      </c>
+      <c r="C327" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="2">
+        <v>20240924</v>
+      </c>
+      <c r="B328" s="2">
+        <v>36.813000000000002</v>
+      </c>
+      <c r="C328" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="2">
+        <v>20240925</v>
+      </c>
+      <c r="B329" s="2">
+        <v>36.810499999999998</v>
+      </c>
+      <c r="C329" s="3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="2">
+        <v>20240926</v>
+      </c>
+      <c r="B330" s="2">
+        <v>36.850700000000003</v>
+      </c>
+      <c r="C330" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="2">
+        <v>20240927</v>
+      </c>
+      <c r="B331" s="2">
+        <v>36.865499999999997</v>
+      </c>
+      <c r="C331" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="2">
+        <v>20240930</v>
+      </c>
+      <c r="B332" s="2">
+        <v>36.9086</v>
+      </c>
+      <c r="C332" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="2">
+        <v>20240801</v>
+      </c>
+      <c r="B333" s="2">
+        <v>36.636800000000001</v>
+      </c>
+      <c r="C333" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="2">
+        <v>20240802</v>
+      </c>
+      <c r="B334" s="2">
+        <v>36.642299999999999</v>
+      </c>
+      <c r="C334" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="2">
+        <v>20240805</v>
+      </c>
+      <c r="B335" s="2">
+        <v>36.655500000000004</v>
+      </c>
+      <c r="C335" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="2">
+        <v>20240806</v>
+      </c>
+      <c r="B336" s="2">
+        <v>36.652700000000003</v>
+      </c>
+      <c r="C336" s="3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="2">
+        <v>20240807</v>
+      </c>
+      <c r="B337" s="2">
+        <v>36.664200000000001</v>
+      </c>
+      <c r="C337" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="2">
+        <v>20240808</v>
+      </c>
+      <c r="B338" s="2">
+        <v>36.680599999999998</v>
+      </c>
+      <c r="C338" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="2">
+        <v>20240809</v>
+      </c>
+      <c r="B339" s="2">
+        <v>36.682699999999997</v>
+      </c>
+      <c r="C339" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="2">
+        <v>20240812</v>
+      </c>
+      <c r="B340" s="2">
+        <v>36.665799999999997</v>
+      </c>
+      <c r="C340" s="3">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="2">
+        <v>20240813</v>
+      </c>
+      <c r="B341" s="2">
+        <v>36.630499999999998</v>
+      </c>
+      <c r="C341" s="3">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A342" s="2">
+        <v>20240814</v>
+      </c>
+      <c r="B342" s="2">
+        <v>36.656100000000002</v>
+      </c>
+      <c r="C342" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="2">
+        <v>20240815</v>
+      </c>
+      <c r="B343" s="2">
+        <v>36.613199999999999</v>
+      </c>
+      <c r="C343" s="3">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="2">
+        <v>20240816</v>
+      </c>
+      <c r="B344" s="2">
+        <v>36.6768</v>
+      </c>
+      <c r="C344" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="2">
+        <v>20240820</v>
+      </c>
+      <c r="B345" s="2">
+        <v>36.684800000000003</v>
+      </c>
+      <c r="C345" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="2">
+        <v>20240821</v>
+      </c>
+      <c r="B346" s="2">
+        <v>36.683</v>
+      </c>
+      <c r="C346" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="2">
+        <v>20240822</v>
+      </c>
+      <c r="B347" s="2">
+        <v>36.648400000000002</v>
+      </c>
+      <c r="C347" s="3">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="2">
+        <v>20240823</v>
+      </c>
+      <c r="B348" s="2">
+        <v>36.6967</v>
+      </c>
+      <c r="C348" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="2">
+        <v>20240826</v>
+      </c>
+      <c r="B349" s="2">
+        <v>36.588799999999999</v>
+      </c>
+      <c r="C349" s="3">
+        <v>-2.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="2">
+        <v>20240827</v>
+      </c>
+      <c r="B350" s="2">
+        <v>36.563299999999998</v>
+      </c>
+      <c r="C350" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="2">
+        <v>20240828</v>
+      </c>
+      <c r="B351" s="2">
+        <v>36.588299999999997</v>
+      </c>
+      <c r="C351" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="2">
+        <v>20240829</v>
+      </c>
+      <c r="B352" s="2">
+        <v>36.591900000000003</v>
+      </c>
+      <c r="C352" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="2">
+        <v>20240830</v>
+      </c>
+      <c r="B353" s="2">
+        <v>36.625900000000001</v>
+      </c>
+      <c r="C353" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="2">
+        <v>20240701</v>
+      </c>
+      <c r="B354" s="2">
+        <v>36.446199999999997</v>
+      </c>
+      <c r="C354" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A355" s="2">
+        <v>20240702</v>
+      </c>
+      <c r="B355" s="2">
+        <v>36.455100000000002</v>
+      </c>
+      <c r="C355" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="2">
+        <v>20240703</v>
+      </c>
+      <c r="B356" s="2">
+        <v>36.467199999999998</v>
+      </c>
+      <c r="C356" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="2">
+        <v>20240704</v>
+      </c>
+      <c r="B357" s="2">
+        <v>36.477899999999998</v>
+      </c>
+      <c r="C357" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="2">
+        <v>20240708</v>
+      </c>
+      <c r="B358" s="2">
+        <v>36.512300000000003</v>
+      </c>
+      <c r="C358" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="2">
+        <v>20240709</v>
+      </c>
+      <c r="B359" s="2">
+        <v>36.488799999999998</v>
+      </c>
+      <c r="C359" s="3">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="2">
+        <v>20240710</v>
+      </c>
+      <c r="B360" s="2">
+        <v>36.505600000000001</v>
+      </c>
+      <c r="C360" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A361" s="2">
+        <v>20240711</v>
+      </c>
+      <c r="B361" s="2">
+        <v>36.513399999999997</v>
+      </c>
+      <c r="C361" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="2">
+        <v>20240712</v>
+      </c>
+      <c r="B362" s="2">
+        <v>36.530299999999997</v>
+      </c>
+      <c r="C362" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A363" s="2">
+        <v>20240715</v>
+      </c>
+      <c r="B363" s="2">
+        <v>36.524299999999997</v>
+      </c>
+      <c r="C363" s="3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A364" s="2">
+        <v>20240716</v>
+      </c>
+      <c r="B364" s="2">
+        <v>36.500399999999999</v>
+      </c>
+      <c r="C364" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A365" s="2">
+        <v>20240717</v>
+      </c>
+      <c r="B365" s="2">
+        <v>36.506</v>
+      </c>
+      <c r="C365" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="2">
+        <v>20240718</v>
+      </c>
+      <c r="B366" s="2">
+        <v>36.540700000000001</v>
+      </c>
+      <c r="C366" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A367" s="2">
+        <v>20240719</v>
+      </c>
+      <c r="B367" s="2">
+        <v>36.572400000000002</v>
+      </c>
+      <c r="C367" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A368" s="2">
+        <v>20240722</v>
+      </c>
+      <c r="B368" s="2">
+        <v>36.6066</v>
+      </c>
+      <c r="C368" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A369" s="2">
+        <v>20240723</v>
+      </c>
+      <c r="B369" s="2">
+        <v>36.531399999999998</v>
+      </c>
+      <c r="C369" s="3">
+        <v>-2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="2">
+        <v>20240725</v>
+      </c>
+      <c r="B370" s="2">
+        <v>36.558999999999997</v>
+      </c>
+      <c r="C370" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A371" s="2">
+        <v>20240726</v>
+      </c>
+      <c r="B371" s="2">
+        <v>36.579700000000003</v>
+      </c>
+      <c r="C371" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A372" s="2">
+        <v>20240729</v>
+      </c>
+      <c r="B372" s="2">
+        <v>36.607399999999998</v>
+      </c>
+      <c r="C372" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A373" s="2">
+        <v>20240730</v>
+      </c>
+      <c r="B373" s="2">
+        <v>36.609000000000002</v>
+      </c>
+      <c r="C373" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="2">
+        <v>20240731</v>
+      </c>
+      <c r="B374" s="2">
+        <v>36.6128</v>
+      </c>
+      <c r="C374" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A375" s="2">
+        <v>20240604</v>
+      </c>
+      <c r="B375" s="2">
+        <v>36.534399999999998</v>
+      </c>
+      <c r="C375" s="3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A376" s="2">
+        <v>20240605</v>
+      </c>
+      <c r="B376" s="2">
+        <v>36.540799999999997</v>
+      </c>
+      <c r="C376" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A377" s="2">
+        <v>20240606</v>
+      </c>
+      <c r="B377" s="2">
+        <v>36.524000000000001</v>
+      </c>
+      <c r="C377" s="3">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="2">
+        <v>20240607</v>
+      </c>
+      <c r="B378" s="2">
+        <v>36.488199999999999</v>
+      </c>
+      <c r="C378" s="3">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A379" s="2">
+        <v>20240610</v>
+      </c>
+      <c r="B379" s="2">
+        <v>36.478700000000003</v>
+      </c>
+      <c r="C379" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A380" s="2">
+        <v>20240611</v>
+      </c>
+      <c r="B380" s="2">
+        <v>36.450000000000003</v>
+      </c>
+      <c r="C380" s="3">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A381" s="2">
+        <v>20240612</v>
+      </c>
+      <c r="B381" s="2">
+        <v>36.438499999999998</v>
+      </c>
+      <c r="C381" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="2">
+        <v>20240613</v>
+      </c>
+      <c r="B382" s="2">
+        <v>36.4497</v>
+      </c>
+      <c r="C382" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A383" s="2">
+        <v>20240614</v>
+      </c>
+      <c r="B383" s="2">
+        <v>36.429600000000001</v>
+      </c>
+      <c r="C383" s="3">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A384" s="2">
+        <v>20240618</v>
+      </c>
+      <c r="B384" s="2">
+        <v>36.4176</v>
+      </c>
+      <c r="C384" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A385" s="2">
+        <v>20240619</v>
+      </c>
+      <c r="B385" s="2">
+        <v>36.393900000000002</v>
+      </c>
+      <c r="C385" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A386" s="2">
+        <v>20240620</v>
+      </c>
+      <c r="B386" s="2">
+        <v>36.383099999999999</v>
+      </c>
+      <c r="C386" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A387" s="2">
+        <v>20240621</v>
+      </c>
+      <c r="B387" s="2">
+        <v>36.378900000000002</v>
+      </c>
+      <c r="C387" s="3">
+        <v>-1E-4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A388" s="2">
+        <v>20240625</v>
+      </c>
+      <c r="B388" s="2">
+        <v>36.372500000000002</v>
+      </c>
+      <c r="C388" s="3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A389" s="2">
+        <v>20240626</v>
+      </c>
+      <c r="B389" s="2">
+        <v>36.365499999999997</v>
+      </c>
+      <c r="C389" s="3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A390" s="2">
+        <v>20240627</v>
+      </c>
+      <c r="B390" s="2">
+        <v>36.382300000000001</v>
+      </c>
+      <c r="C390" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A391" s="2">
+        <v>20240628</v>
+      </c>
+      <c r="B391" s="2">
+        <v>36.408499999999997</v>
+      </c>
+      <c r="C391" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A392" s="2">
+        <v>20240502</v>
+      </c>
+      <c r="B392" s="2">
+        <v>36.472999999999999</v>
+      </c>
+      <c r="C392" s="3">
+        <v>1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A393" s="2">
+        <v>20240503</v>
+      </c>
+      <c r="B393" s="2">
+        <v>36.509900000000002</v>
+      </c>
+      <c r="C393" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A394" s="2">
+        <v>20240506</v>
+      </c>
+      <c r="B394" s="2">
+        <v>36.584899999999998</v>
+      </c>
+      <c r="C394" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A395" s="2">
+        <v>20240507</v>
+      </c>
+      <c r="B395" s="2">
+        <v>36.576300000000003</v>
+      </c>
+      <c r="C395" s="3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A396" s="2">
+        <v>20240508</v>
+      </c>
+      <c r="B396" s="2">
+        <v>36.562100000000001</v>
+      </c>
+      <c r="C396" s="3">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A397" s="2">
+        <v>20240509</v>
+      </c>
+      <c r="B397" s="2">
+        <v>36.582799999999999</v>
+      </c>
+      <c r="C397" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A398" s="2">
+        <v>20240510</v>
+      </c>
+      <c r="B398" s="2">
+        <v>36.586500000000001</v>
+      </c>
+      <c r="C398" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A399" s="2">
+        <v>20240514</v>
+      </c>
+      <c r="B399" s="2">
+        <v>36.610100000000003</v>
+      </c>
+      <c r="C399" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A400" s="2">
+        <v>20240515</v>
+      </c>
+      <c r="B400" s="2">
+        <v>36.594900000000003</v>
+      </c>
+      <c r="C400" s="3">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A401" s="2">
+        <v>20240516</v>
+      </c>
+      <c r="B401" s="2">
+        <v>36.604199999999999</v>
+      </c>
+      <c r="C401" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A402" s="2">
+        <v>20240517</v>
+      </c>
+      <c r="B402" s="2">
+        <v>36.6265</v>
+      </c>
+      <c r="C402" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A403" s="2">
+        <v>20240520</v>
+      </c>
+      <c r="B403" s="2">
+        <v>36.5717</v>
+      </c>
+      <c r="C403" s="3">
+        <v>-1.5E-3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A404" s="2">
+        <v>20240521</v>
+      </c>
+      <c r="B404" s="2">
+        <v>36.570300000000003</v>
+      </c>
+      <c r="C404" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A405" s="2">
+        <v>20240522</v>
+      </c>
+      <c r="B405" s="2">
+        <v>36.558900000000001</v>
+      </c>
+      <c r="C405" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A406" s="2">
+        <v>20240523</v>
+      </c>
+      <c r="B406" s="2">
+        <v>36.546399999999998</v>
+      </c>
+      <c r="C406" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A407" s="2">
+        <v>20240524</v>
+      </c>
+      <c r="B407" s="2">
+        <v>36.521900000000002</v>
+      </c>
+      <c r="C407" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A408" s="2">
+        <v>20240527</v>
+      </c>
+      <c r="B408" s="2">
+        <v>36.512900000000002</v>
+      </c>
+      <c r="C408" s="3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A409" s="2">
+        <v>20240528</v>
+      </c>
+      <c r="B409" s="2">
+        <v>36.511899999999997</v>
+      </c>
+      <c r="C409" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A410" s="2">
+        <v>20240529</v>
+      </c>
+      <c r="B410" s="2">
+        <v>36.510300000000001</v>
+      </c>
+      <c r="C410" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A411" s="2">
+        <v>20240530</v>
+      </c>
+      <c r="B411" s="2">
+        <v>36.511400000000002</v>
+      </c>
+      <c r="C411" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A412" s="2">
+        <v>20240531</v>
+      </c>
+      <c r="B412" s="2">
+        <v>36.537199999999999</v>
+      </c>
+      <c r="C412" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A413" s="2">
+        <v>20240401</v>
+      </c>
+      <c r="B413" s="2">
+        <v>36.2896</v>
+      </c>
+      <c r="C413" s="3">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A414" s="2">
+        <v>20240402</v>
+      </c>
+      <c r="B414" s="2">
+        <v>36.261099999999999</v>
+      </c>
+      <c r="C414" s="3">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A415" s="2">
+        <v>20240403</v>
+      </c>
+      <c r="B415" s="2">
+        <v>36.286000000000001</v>
+      </c>
+      <c r="C415" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A416" s="2">
+        <v>20240404</v>
+      </c>
+      <c r="B416" s="2">
+        <v>36.249299999999998</v>
+      </c>
+      <c r="C416" s="3">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A417" s="2">
+        <v>20240405</v>
+      </c>
+      <c r="B417" s="2">
+        <v>36.210500000000003</v>
+      </c>
+      <c r="C417" s="3">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A418" s="2">
+        <v>20240408</v>
+      </c>
+      <c r="B418" s="2">
+        <v>36.227400000000003</v>
+      </c>
+      <c r="C418" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A419" s="2">
+        <v>20240409</v>
+      </c>
+      <c r="B419" s="2">
+        <v>36.180900000000001</v>
+      </c>
+      <c r="C419" s="3">
+        <v>-1.2999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A420" s="2">
+        <v>20240410</v>
+      </c>
+      <c r="B420" s="2">
+        <v>36.225099999999998</v>
+      </c>
+      <c r="C420" s="3">
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A421" s="2">
+        <v>20240411</v>
+      </c>
+      <c r="B421" s="2">
+        <v>36.188299999999998</v>
+      </c>
+      <c r="C421" s="3">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A422" s="2">
+        <v>20240412</v>
+      </c>
+      <c r="B422" s="2">
+        <v>36.2804</v>
+      </c>
+      <c r="C422" s="3">
+        <v>2.5000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A423" s="2">
+        <v>20240415</v>
+      </c>
+      <c r="B423" s="2">
+        <v>36.294699999999999</v>
+      </c>
+      <c r="C423" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A424" s="2">
+        <v>20240416</v>
+      </c>
+      <c r="B424" s="2">
+        <v>36.288899999999998</v>
+      </c>
+      <c r="C424" s="3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A425" s="2">
+        <v>20240417</v>
+      </c>
+      <c r="B425" s="2">
+        <v>36.297400000000003</v>
+      </c>
+      <c r="C425" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A426" s="2">
+        <v>20240418</v>
+      </c>
+      <c r="B426" s="2">
+        <v>36.326500000000003</v>
+      </c>
+      <c r="C426" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A427" s="2">
+        <v>20240422</v>
+      </c>
+      <c r="B427" s="2">
+        <v>36.342100000000002</v>
+      </c>
+      <c r="C427" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A428" s="2">
+        <v>20240423</v>
+      </c>
+      <c r="B428" s="2">
+        <v>36.3506</v>
+      </c>
+      <c r="C428" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A429" s="2">
+        <v>20240424</v>
+      </c>
+      <c r="B429" s="2">
+        <v>36.387700000000002</v>
+      </c>
+      <c r="C429" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A430" s="2">
+        <v>20240425</v>
+      </c>
+      <c r="B430" s="2">
+        <v>36.423099999999998</v>
+      </c>
+      <c r="C430" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A431" s="2">
+        <v>20240426</v>
+      </c>
+      <c r="B431" s="2">
+        <v>36.431100000000001</v>
+      </c>
+      <c r="C431" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A432" s="2">
+        <v>20240429</v>
+      </c>
+      <c r="B432" s="2">
+        <v>36.432400000000001</v>
+      </c>
+      <c r="C432" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A433" s="2">
+        <v>20240430</v>
+      </c>
+      <c r="B433" s="2">
+        <v>36.426200000000001</v>
+      </c>
+      <c r="C433" s="3">
+        <v>-2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A434" s="2">
+        <v>20240301</v>
+      </c>
+      <c r="B434" s="2">
+        <v>36.151800000000001</v>
+      </c>
+      <c r="C434" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A435" s="2">
+        <v>20240304</v>
+      </c>
+      <c r="B435" s="2">
+        <v>36.080100000000002</v>
+      </c>
+      <c r="C435" s="3">
+        <v>-2E-3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A436" s="2">
+        <v>20240305</v>
+      </c>
+      <c r="B436" s="2">
+        <v>36.093299999999999</v>
+      </c>
+      <c r="C436" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A437" s="2">
+        <v>20240306</v>
+      </c>
+      <c r="B437" s="2">
+        <v>36.131799999999998</v>
+      </c>
+      <c r="C437" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A438" s="2">
+        <v>20240307</v>
+      </c>
+      <c r="B438" s="2">
+        <v>36.172600000000003</v>
+      </c>
+      <c r="C438" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A439" s="2">
+        <v>20240308</v>
+      </c>
+      <c r="B439" s="2">
+        <v>36.133099999999999</v>
+      </c>
+      <c r="C439" s="3">
+        <v>-1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A440" s="2">
+        <v>20240311</v>
+      </c>
+      <c r="B440" s="2">
+        <v>36.190300000000001</v>
+      </c>
+      <c r="C440" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A441" s="2">
+        <v>20240312</v>
+      </c>
+      <c r="B441" s="2">
+        <v>36.200499999999998</v>
+      </c>
+      <c r="C441" s="3">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A442" s="2">
+        <v>20240313</v>
+      </c>
+      <c r="B442" s="2">
+        <v>36.236800000000002</v>
+      </c>
+      <c r="C442" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A443" s="2">
+        <v>20240314</v>
+      </c>
+      <c r="B443" s="2">
+        <v>36.263300000000001</v>
+      </c>
+      <c r="C443" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A444" s="2">
+        <v>20240315</v>
+      </c>
+      <c r="B444" s="2">
+        <v>36.276000000000003</v>
+      </c>
+      <c r="C444" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A445" s="2">
+        <v>20240318</v>
+      </c>
+      <c r="B445" s="2">
+        <v>36.316699999999997</v>
+      </c>
+      <c r="C445" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A446" s="2">
+        <v>20240320</v>
+      </c>
+      <c r="B446" s="2">
+        <v>36.265300000000003</v>
+      </c>
+      <c r="C446" s="3">
+        <v>-1.4E-3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A447" s="2">
+        <v>20240321</v>
+      </c>
+      <c r="B447" s="2">
+        <v>36.286099999999998</v>
+      </c>
+      <c r="C447" s="3">
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A448" s="2">
+        <v>20240322</v>
+      </c>
+      <c r="B448" s="2">
+        <v>36.3217</v>
+      </c>
+      <c r="C448" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A449" s="2">
+        <v>20240325</v>
+      </c>
+      <c r="B449" s="2">
+        <v>36.355499999999999</v>
+      </c>
+      <c r="C449" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A450" s="2">
+        <v>20240326</v>
+      </c>
+      <c r="B450" s="2">
+        <v>36.300600000000003</v>
+      </c>
+      <c r="C450" s="3">
+        <v>-1.5E-3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A451" s="2">
+        <v>20240327</v>
+      </c>
+      <c r="B451" s="2">
+        <v>36.334000000000003</v>
+      </c>
+      <c r="C451" s="3">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A452" s="2">
+        <v>20240201</v>
+      </c>
+      <c r="B452" s="2">
+        <v>36.260100000000001</v>
+      </c>
+      <c r="C452" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A453" s="2">
+        <v>20240202</v>
+      </c>
+      <c r="B453" s="2">
+        <v>36.235199999999999</v>
+      </c>
+      <c r="C453" s="3">
+        <v>-6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A454" s="2">
+        <v>20240205</v>
+      </c>
+      <c r="B454" s="2">
+        <v>36.285899999999998</v>
+      </c>
+      <c r="C454" s="3">
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A455" s="2">
+        <v>20240206</v>
+      </c>
+      <c r="B455" s="2">
+        <v>36.253399999999999</v>
+      </c>
+      <c r="C455" s="3">
+        <v>-8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A456" s="2">
+        <v>20240207</v>
+      </c>
+      <c r="B456" s="2">
+        <v>36.255600000000001</v>
+      </c>
+      <c r="C456" s="3">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A457" s="2">
+        <v>20240208</v>
+      </c>
+      <c r="B457" s="2">
+        <v>36.237499999999997</v>
+      </c>
+      <c r="C457" s="3">
+        <v>-5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A458" s="2">
+        <v>20240209</v>
+      </c>
+      <c r="B458" s="2">
+        <v>36.291899999999998</v>
+      </c>
+      <c r="C458" s="3">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A459" s="2">
+        <v>20240214</v>
+      </c>
+      <c r="B459" s="2">
+        <v>36.3185</v>
+      </c>
+      <c r="C459" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A460" s="2">
+        <v>20240215</v>
+      </c>
+      <c r="B460" s="2">
+        <v>36.260899999999999</v>
+      </c>
+      <c r="C460" s="3">
+        <v>-1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A461" s="2">
+        <v>20240216</v>
+      </c>
+      <c r="B461" s="2">
+        <v>36.273699999999998</v>
+      </c>
+      <c r="C461" s="3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="2">
+        <v>20240219</v>
+      </c>
+      <c r="B462" s="2">
+        <v>36.335799999999999</v>
+      </c>
+      <c r="C462" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="2">
+        <v>20240220</v>
+      </c>
+      <c r="B463" s="2">
+        <v>36.237499999999997</v>
+      </c>
+      <c r="C463" s="3">
+        <v>-2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="2">
+        <v>20240221</v>
+      </c>
+      <c r="B464" s="2">
+        <v>36.295099999999998</v>
+      </c>
+      <c r="C464" s="3">
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="2">
+        <v>20240222</v>
+      </c>
+      <c r="B465" s="2">
+        <v>36.231499999999997</v>
+      </c>
+      <c r="C465" s="3">
+        <v>-1.8E-3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="2">
+        <v>20240223</v>
+      </c>
+      <c r="B466" s="2">
+        <v>36.232900000000001</v>
+      </c>
+      <c r="C466" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="2">
+        <v>20240226</v>
+      </c>
+      <c r="B467" s="2">
+        <v>36.069800000000001</v>
+      </c>
+      <c r="C467" s="3">
+        <v>-4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="2">
+        <v>20240227</v>
+      </c>
+      <c r="B468" s="2">
+        <v>36.070599999999999</v>
+      </c>
+      <c r="C468" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="2">
+        <v>20240228</v>
+      </c>
+      <c r="B469" s="2">
+        <v>36.095500000000001</v>
+      </c>
+      <c r="C469" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="2">
+        <v>20240229</v>
+      </c>
+      <c r="B470" s="2">
+        <v>36.130400000000002</v>
+      </c>
+      <c r="C470" s="3">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="2">
+        <v>20240102</v>
+      </c>
+      <c r="B471" s="2">
+        <v>35.959299999999999</v>
+      </c>
+      <c r="C471" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="2">
+        <v>20240103</v>
+      </c>
+      <c r="B472" s="2">
+        <v>35.866999999999997</v>
+      </c>
+      <c r="C472" s="3">
+        <v>-2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="2">
+        <v>20240104</v>
+      </c>
+      <c r="B473" s="2">
+        <v>35.949599999999997</v>
+      </c>
+      <c r="C473" s="3">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="2">
+        <v>20240105</v>
+      </c>
+      <c r="B474" s="2">
+        <v>36.034500000000001</v>
+      </c>
+      <c r="C474" s="3">
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="2">
+        <v>20240108</v>
+      </c>
+      <c r="B475" s="2">
+        <v>36.006500000000003</v>
+      </c>
+      <c r="C475" s="3">
+        <v>-8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="2">
+        <v>20240109</v>
+      </c>
+      <c r="B476" s="2">
+        <v>35.938499999999998</v>
+      </c>
+      <c r="C476" s="3">
+        <v>-1.9E-3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="2">
+        <v>20240110</v>
+      </c>
+      <c r="B477" s="2">
+        <v>35.917099999999998</v>
+      </c>
+      <c r="C477" s="3">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="2">
+        <v>20240111</v>
+      </c>
+      <c r="B478" s="2">
+        <v>35.9437</v>
+      </c>
+      <c r="C478" s="3">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="2">
+        <v>20240112</v>
+      </c>
+      <c r="B479" s="2">
+        <v>35.962899999999998</v>
+      </c>
+      <c r="C479" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="2">
+        <v>20240115</v>
+      </c>
+      <c r="B480" s="2">
+        <v>36.039700000000003</v>
+      </c>
+      <c r="C480" s="3">
+        <v>2.0999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="2">
+        <v>20240116</v>
+      </c>
+      <c r="B481" s="2">
+        <v>35.974400000000003</v>
+      </c>
+      <c r="C481" s="3">
+        <v>-1.8E-3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="2">
+        <v>20240117</v>
+      </c>
+      <c r="B482" s="2">
+        <v>36.046599999999998</v>
+      </c>
+      <c r="C482" s="3">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="2">
+        <v>20240118</v>
+      </c>
+      <c r="B483" s="2">
+        <v>36.076099999999997</v>
+      </c>
+      <c r="C483" s="3">
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="2">
+        <v>20240119</v>
+      </c>
+      <c r="B484" s="2">
+        <v>36.137900000000002</v>
+      </c>
+      <c r="C484" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="2">
+        <v>20240122</v>
+      </c>
+      <c r="B485" s="2">
+        <v>36.145899999999997</v>
+      </c>
+      <c r="C485" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="2">
+        <v>20240123</v>
+      </c>
+      <c r="B486" s="2">
+        <v>36.110399999999998</v>
+      </c>
+      <c r="C486" s="3">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="2">
+        <v>20240124</v>
+      </c>
+      <c r="B487" s="2">
+        <v>36.127899999999997</v>
+      </c>
+      <c r="C487" s="3">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="2">
+        <v>20240125</v>
+      </c>
+      <c r="B488" s="2">
+        <v>36.118699999999997</v>
+      </c>
+      <c r="C488" s="3">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="2">
+        <v>20240126</v>
+      </c>
+      <c r="B489" s="2">
+        <v>36.118600000000001</v>
+      </c>
+      <c r="C489" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="2">
+        <v>20240129</v>
+      </c>
+      <c r="B490" s="2">
+        <v>36.201999999999998</v>
+      </c>
+      <c r="C490" s="3">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="2">
+        <v>20240130</v>
+      </c>
+      <c r="B491" s="2">
+        <v>36.141800000000003</v>
+      </c>
+      <c r="C491" s="3">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="2">
+        <v>20240131</v>
+      </c>
+      <c r="B492" s="2">
+        <v>36.203200000000002</v>
+      </c>
+      <c r="C492" s="3">
+        <v>1.6999999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/dolar_bcv.xlsx
+++ b/dolar_bcv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\BOLSADC_6-main\BOLSADC_6-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C65DD421-8E3C-4BAD-90CD-C3DBFEA64228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85AA9DE-D315-436F-B427-6F060509D27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10275" yWindow="2820" windowWidth="16530" windowHeight="8010" xr2:uid="{46902DB1-43F4-4630-85C3-3B39D2B92370}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46902DB1-43F4-4630-85C3-3B39D2B92370}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -111,22 +111,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -138,12 +127,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +444,7 @@
   <dimension ref="A1:E495"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="A496" sqref="A496"/>
+      <selection activeCell="C496" sqref="C496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5880,7 +5863,7 @@
       </c>
     </row>
     <row r="493" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A493" s="5">
+      <c r="A493" s="2">
         <v>20260120</v>
       </c>
       <c r="B493" s="2">
@@ -5891,7 +5874,7 @@
       </c>
     </row>
     <row r="494" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A494" s="5">
+      <c r="A494" s="2">
         <v>20260121</v>
       </c>
       <c r="B494" s="2">
@@ -5901,15 +5884,15 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="5">
+    <row r="495" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="2">
         <v>20260122</v>
       </c>
-      <c r="B495" s="5">
+      <c r="B495" s="2">
         <v>349.92720000000003</v>
       </c>
-      <c r="C495" s="6">
-        <v>0.77</v>
+      <c r="C495" s="3">
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
   </sheetData>

--- a/dolar_bcv.xlsx
+++ b/dolar_bcv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\BOLSADC_6-main\BOLSADC_6-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\BOLSADC_5-main\BOLSADC_5-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85AA9DE-D315-436F-B427-6F060509D27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6852996C-C0EE-4D6B-A08D-C9753F413D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{46902DB1-43F4-4630-85C3-3B39D2B92370}"/>
   </bookViews>
@@ -88,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,11 +111,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
@@ -127,6 +138,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6DA86F-8884-437F-9104-D83745BB71A6}">
-  <dimension ref="A1:E495"/>
+  <dimension ref="A1:E496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A485" workbookViewId="0">
-      <selection activeCell="C496" sqref="C496"/>
+    <sheetView tabSelected="1" topLeftCell="A476" workbookViewId="0">
+      <selection activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5895,6 +5909,17 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
+    <row r="496" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="5">
+        <v>20260123</v>
+      </c>
+      <c r="B496" s="5">
+        <v>352.7063</v>
+      </c>
+      <c r="C496" s="3">
+        <v>7.9000000000000008E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
